--- a/конкуренты.xlsx
+++ b/конкуренты.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,24 +419,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35 TFSI 2.0 AMT (150 л.с.)</t>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sport 35 TFSI S tronic</t>
+          <t>40 TFSI S tronic</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3231000</v>
+        <v>3910000</v>
       </c>
       <c r="G2" t="n">
-        <v>3231000</v>
+        <v>3910000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -463,26 +463,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+          <t>40 TDI 2.0d AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40 TFSI S tronic</t>
+          <t>40 TDI S tronic</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4754400</v>
+        <v>4246000</v>
       </c>
       <c r="G3" t="n">
-        <v>4680000</v>
+        <v>4246000</v>
       </c>
       <c r="H3" t="n">
-        <v>74400</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -511,17 +511,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5231300</v>
+        <v>4384000</v>
       </c>
       <c r="G4" t="n">
-        <v>4597000</v>
+        <v>4384000</v>
       </c>
       <c r="H4" t="n">
-        <v>634300</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -541,26 +541,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40 TDI 2.0d AMT (190 л.с.)</t>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40 TDI S tronic</t>
+          <t>40 TFSI S tronic</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5407100</v>
+        <v>4626000</v>
       </c>
       <c r="G5" t="n">
-        <v>4597000</v>
+        <v>4626000</v>
       </c>
       <c r="H5" t="n">
-        <v>810100</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -589,17 +589,17 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5530800</v>
+        <v>3910000</v>
       </c>
       <c r="G6" t="n">
-        <v>4680000</v>
+        <v>3910000</v>
       </c>
       <c r="H6" t="n">
-        <v>850800</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -619,26 +619,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+          <t>40 TDI 2.0d AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40 TFSI S tronic</t>
+          <t>40 TDI S tronic</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4754400</v>
+        <v>3775000</v>
       </c>
       <c r="G7" t="n">
-        <v>4680000</v>
+        <v>3775000</v>
       </c>
       <c r="H7" t="n">
-        <v>74400</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -658,26 +658,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40 TDI 2.0d AMT (190 л.с.)</t>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>40 TDI S tronic</t>
+          <t>40 TFSI S tronic</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4659500</v>
+        <v>3910000</v>
       </c>
       <c r="G8" t="n">
-        <v>4597000</v>
+        <v>3910000</v>
       </c>
       <c r="H8" t="n">
-        <v>62500</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -697,26 +697,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+          <t>40 TDI 2.0d AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40 TFSI S tronic</t>
+          <t>40 TDI S tronic</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4754400</v>
+        <v>4228000</v>
       </c>
       <c r="G9" t="n">
-        <v>4680000</v>
+        <v>4228000</v>
       </c>
       <c r="H9" t="n">
-        <v>74400</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -736,26 +736,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40 TDI 2.0d AMT (190 л.с.)</t>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>40 TDI S tronic</t>
+          <t>40 TFSI S tronic</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4995500</v>
+        <v>4626000</v>
       </c>
       <c r="G10" t="n">
-        <v>4597000</v>
+        <v>4626000</v>
       </c>
       <c r="H10" t="n">
-        <v>398500</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5530800</v>
+        <v>4779000</v>
       </c>
       <c r="G11" t="n">
         <v>4680000</v>
       </c>
       <c r="H11" t="n">
-        <v>850800</v>
+        <v>99000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -814,26 +814,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+          <t>40 TDI 2.0d AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>40 TFSI S tronic</t>
+          <t>40 TDI S tronic</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5699600</v>
+        <v>4585000</v>
       </c>
       <c r="G12" t="n">
-        <v>4680000</v>
+        <v>4585000</v>
       </c>
       <c r="H12" t="n">
-        <v>1019600</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -862,17 +862,17 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5629400</v>
+        <v>3775000</v>
       </c>
       <c r="G13" t="n">
-        <v>4597000</v>
+        <v>3775000</v>
       </c>
       <c r="H13" t="n">
-        <v>1032400</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -892,26 +892,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>40 TDI 2.0d AMT (190 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>40 TDI S tronic</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4659500</v>
+        <v>5110100</v>
       </c>
       <c r="G14" t="n">
-        <v>4597000</v>
+        <v>4807000</v>
       </c>
       <c r="H14" t="n">
-        <v>62500</v>
+        <v>303100</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5290100</v>
+        <v>5849000</v>
       </c>
       <c r="G15" t="n">
         <v>4807000</v>
       </c>
       <c r="H15" t="n">
-        <v>483100</v>
+        <v>1042000</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6029000</v>
+        <v>5849000</v>
       </c>
       <c r="G16" t="n">
         <v>4807000</v>
       </c>
       <c r="H16" t="n">
-        <v>1222000</v>
+        <v>1042000</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6029000</v>
+        <v>5110100</v>
       </c>
       <c r="G17" t="n">
         <v>4807000</v>
       </c>
       <c r="H17" t="n">
-        <v>1222000</v>
+        <v>303100</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1043,31 +1043,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>e-tron</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
+          <t>55 Electro AT (300.0 кВт) 4WD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>Sport 55 quattro</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5290100</v>
+        <v>7951000</v>
       </c>
       <c r="G18" t="n">
-        <v>4807000</v>
+        <v>7951000</v>
       </c>
       <c r="H18" t="n">
-        <v>483100</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7951000</v>
+        <v>9306200</v>
       </c>
       <c r="G19" t="n">
-        <v>7951000</v>
+        <v>9306200</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7951000</v>
+        <v>9366500</v>
       </c>
       <c r="G20" t="n">
-        <v>7951000</v>
+        <v>9366500</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9306200</v>
+        <v>9461900</v>
       </c>
       <c r="G21" t="n">
-        <v>9306200</v>
+        <v>9461900</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1199,24 +1199,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>e-tron</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>55 Electro AT (300.0 кВт) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sport 55 quattro</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9366500</v>
+        <v>4690000</v>
       </c>
       <c r="G22" t="n">
-        <v>9366500</v>
+        <v>4690000</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1238,24 +1238,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>e-tron</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>55 Electro AT (300.0 кВт) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sport 55 quattro</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9461900</v>
+        <v>4690000</v>
       </c>
       <c r="G23" t="n">
-        <v>9461900</v>
+        <v>4690000</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1287,21 +1287,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5551800</v>
+        <v>4517000</v>
       </c>
       <c r="G24" t="n">
-        <v>5139000</v>
+        <v>4517000</v>
       </c>
       <c r="H24" t="n">
-        <v>412800</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1326,21 +1326,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5260671</v>
+        <v>4517000</v>
       </c>
       <c r="G25" t="n">
-        <v>5139000</v>
+        <v>4517000</v>
       </c>
       <c r="H25" t="n">
-        <v>121671</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1369,17 +1369,17 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5212552</v>
+        <v>4317000</v>
       </c>
       <c r="G26" t="n">
-        <v>4987000</v>
+        <v>4317000</v>
       </c>
       <c r="H26" t="n">
-        <v>225552</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1408,17 +1408,17 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5264503</v>
+        <v>4317000</v>
       </c>
       <c r="G27" t="n">
-        <v>4987000</v>
+        <v>4317000</v>
       </c>
       <c r="H27" t="n">
-        <v>277503</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4899040</v>
+        <v>4317000</v>
       </c>
       <c r="G28" t="n">
-        <v>4899040</v>
+        <v>4317000</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1486,17 +1486,17 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5035103</v>
+        <v>4460000</v>
       </c>
       <c r="G29" t="n">
-        <v>4987000</v>
+        <v>4460000</v>
       </c>
       <c r="H29" t="n">
-        <v>48103</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1521,21 +1521,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5024500</v>
+        <v>4690000</v>
       </c>
       <c r="G30" t="n">
-        <v>4987000</v>
+        <v>4690000</v>
       </c>
       <c r="H30" t="n">
-        <v>37500</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1560,21 +1560,21 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5275810</v>
+        <v>4690000</v>
       </c>
       <c r="G31" t="n">
-        <v>4987000</v>
+        <v>4690000</v>
       </c>
       <c r="H31" t="n">
-        <v>288810</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1599,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Design 45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5264088</v>
+        <v>6107569</v>
       </c>
       <c r="G32" t="n">
-        <v>4690000</v>
+        <v>5167600</v>
       </c>
       <c r="H32" t="n">
-        <v>574088</v>
+        <v>939969</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q5 Sportback</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1638,21 +1638,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Design 45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5264088</v>
+        <v>5820899</v>
       </c>
       <c r="G33" t="n">
-        <v>4690000</v>
+        <v>5806000</v>
       </c>
       <c r="H33" t="n">
-        <v>574088</v>
+        <v>14899</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>audi_centr_lahta_sankt_peterburg</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q5 Sportback</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1677,21 +1677,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5260671</v>
+        <v>5404615</v>
       </c>
       <c r="G34" t="n">
-        <v>5139000</v>
+        <v>5404615</v>
       </c>
       <c r="H34" t="n">
-        <v>121671</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q5 Sportback</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1716,21 +1716,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5619515</v>
+        <v>5684485</v>
       </c>
       <c r="G35" t="n">
-        <v>5139000</v>
+        <v>5684485</v>
       </c>
       <c r="H35" t="n">
-        <v>480515</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q5 Sportback</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1755,21 +1755,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6107569</v>
+        <v>5404615</v>
       </c>
       <c r="G36" t="n">
-        <v>5139000</v>
+        <v>5404615</v>
       </c>
       <c r="H36" t="n">
-        <v>968569</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro</t>
+          <t>Design 45 TFSI quattro</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5144000</v>
+        <v>5474679</v>
       </c>
       <c r="G37" t="n">
-        <v>5144000</v>
+        <v>5474679</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4759000</v>
+        <v>5524772</v>
       </c>
       <c r="G38" t="n">
-        <v>4759000</v>
+        <v>5524772</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1862,24 +1862,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q5 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5020000</v>
+        <v>8188000</v>
       </c>
       <c r="G39" t="n">
-        <v>5020000</v>
+        <v>8188000</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1901,24 +1901,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q5 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4793000</v>
+        <v>8185000</v>
       </c>
       <c r="G40" t="n">
-        <v>4793000</v>
+        <v>8185000</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1940,24 +1940,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q5 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Design 45 TFSI quattro</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4857000</v>
+        <v>8185000</v>
       </c>
       <c r="G41" t="n">
-        <v>4857000</v>
+        <v>8185000</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1979,24 +1979,24 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q5 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Design 45 TFSI quattro</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4796000</v>
+        <v>8191000</v>
       </c>
       <c r="G42" t="n">
-        <v>4796000</v>
+        <v>8191000</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,24 +2018,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q5 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4879000</v>
+        <v>8685000</v>
       </c>
       <c r="G43" t="n">
-        <v>4879000</v>
+        <v>8685000</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2071,17 +2071,17 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8688000</v>
+        <v>8691000</v>
       </c>
       <c r="G44" t="n">
-        <v>7919583</v>
+        <v>8691000</v>
       </c>
       <c r="H44" t="n">
-        <v>768417</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2110,17 +2110,17 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8685000</v>
+        <v>8514000</v>
       </c>
       <c r="G45" t="n">
-        <v>7919583</v>
+        <v>8514000</v>
       </c>
       <c r="H45" t="n">
-        <v>765417</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2149,17 +2149,17 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8685000</v>
+        <v>8691000</v>
       </c>
       <c r="G46" t="n">
-        <v>7919583</v>
+        <v>8691000</v>
       </c>
       <c r="H46" t="n">
-        <v>765417</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8691000</v>
+        <v>7819000</v>
       </c>
       <c r="G47" t="n">
-        <v>7919583</v>
+        <v>7819000</v>
       </c>
       <c r="H47" t="n">
-        <v>771417</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TDI</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8685000</v>
+        <v>10125100</v>
       </c>
       <c r="G48" t="n">
-        <v>7919583</v>
+        <v>10026700</v>
       </c>
       <c r="H48" t="n">
-        <v>765417</v>
+        <v>98400</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2262,21 +2262,21 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TDI</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8691000</v>
+        <v>9642000</v>
       </c>
       <c r="G49" t="n">
-        <v>7919583</v>
+        <v>9642000</v>
       </c>
       <c r="H49" t="n">
-        <v>771417</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2301,21 +2301,21 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TDI</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8514000</v>
+        <v>9595000</v>
       </c>
       <c r="G50" t="n">
-        <v>7919583</v>
+        <v>9595000</v>
       </c>
       <c r="H50" t="n">
-        <v>594417</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2340,21 +2340,21 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TDI</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8691000</v>
+        <v>9722000</v>
       </c>
       <c r="G51" t="n">
-        <v>7919583</v>
+        <v>9722000</v>
       </c>
       <c r="H51" t="n">
-        <v>771417</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q8</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2379,21 +2379,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TDI</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8691000</v>
+        <v>9642000</v>
       </c>
       <c r="G52" t="n">
-        <v>7919583</v>
+        <v>9642000</v>
       </c>
       <c r="H52" t="n">
-        <v>771417</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2408,31 +2408,31 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>RS 6</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>4.0 AT (600 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>TFSI quattro</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7260000</v>
+        <v>16447000</v>
       </c>
       <c r="G53" t="n">
-        <v>7260000</v>
+        <v>11226300</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>5220700</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -2447,31 +2447,31 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>RS Q8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>4.0 AT (600 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>Quattro</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7790000</v>
+        <v>17992200</v>
       </c>
       <c r="G54" t="n">
-        <v>7790000</v>
+        <v>13259200</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>4733000</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q7</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>45 TDI quattro tiptronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7819000</v>
+        <v>5033688</v>
       </c>
       <c r="G55" t="n">
-        <v>7819000</v>
+        <v>4987000</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>46688</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>audi_centr_lahta_sankt_peterburg</t>
         </is>
       </c>
     </row>
@@ -2525,27 +2525,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>45 TDI</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10125100</v>
+        <v>5530319</v>
       </c>
       <c r="G56" t="n">
-        <v>9781700</v>
+        <v>5167600</v>
       </c>
       <c r="H56" t="n">
-        <v>343400</v>
+        <v>362719</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2564,24 +2564,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>45 TDI</t>
+          <t>35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9642000</v>
+        <v>2978700</v>
       </c>
       <c r="G57" t="n">
-        <v>9642000</v>
+        <v>2978700</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2603,24 +2603,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>45 TDI</t>
+          <t>Sport 40 TFSI S tronic</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9595000</v>
+        <v>3295000</v>
       </c>
       <c r="G58" t="n">
-        <v>9595000</v>
+        <v>3295000</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2642,24 +2642,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>40 TDI 2.0d AMT (190 л.с.)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>45 TDI</t>
+          <t>40 TDI S tronic</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>9722000</v>
+        <v>3910000</v>
       </c>
       <c r="G59" t="n">
-        <v>9722000</v>
+        <v>3910000</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2681,24 +2681,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q8</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+          <t>55 TFSI 3.0 AMT (340 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>45 TDI</t>
+          <t>55 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9642000</v>
+        <v>8509900</v>
       </c>
       <c r="G60" t="n">
-        <v>9642000</v>
+        <v>8509900</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2720,31 +2720,31 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RS 6</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.0 AT (600 л.с.) 4WD</t>
+          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TFSI quattro</t>
+          <t>Design 40 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>16447000</v>
+        <v>3768500</v>
       </c>
       <c r="G61" t="n">
-        <v>11226300</v>
+        <v>3768500</v>
       </c>
       <c r="H61" t="n">
-        <v>5220700</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2759,31 +2759,31 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RS Q8</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.0 AT (600 л.с.) 4WD</t>
+          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Quattro</t>
+          <t>Sport 40 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>17992200</v>
+        <v>3936000</v>
       </c>
       <c r="G62" t="n">
-        <v>13259200</v>
+        <v>3936000</v>
       </c>
       <c r="H62" t="n">
-        <v>4733000</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2560000</v>
+        <v>2706000</v>
       </c>
       <c r="G63" t="n">
-        <v>2560000</v>
+        <v>2706000</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2837,31 +2837,31 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>Design 35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5033688</v>
+        <v>2767000</v>
       </c>
       <c r="G64" t="n">
-        <v>4987000</v>
+        <v>2767000</v>
       </c>
       <c r="H64" t="n">
-        <v>46688</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2876,31 +2876,31 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>Design 35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5530319</v>
+        <v>2698000</v>
       </c>
       <c r="G65" t="n">
-        <v>5139000</v>
+        <v>2698000</v>
       </c>
       <c r="H65" t="n">
-        <v>391319</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2915,31 +2915,31 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sport 45 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5457304</v>
+        <v>6200000</v>
       </c>
       <c r="G66" t="n">
-        <v>5139000</v>
+        <v>6200000</v>
       </c>
       <c r="H66" t="n">
-        <v>318304</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -2954,24 +2954,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35 TFSI tiptronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2978700</v>
+        <v>4317000</v>
       </c>
       <c r="G67" t="n">
-        <v>2978700</v>
+        <v>4317000</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2993,24 +2993,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sport 40 TFSI S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3295000</v>
+        <v>4317000</v>
       </c>
       <c r="G68" t="n">
-        <v>3295000</v>
+        <v>4317000</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3032,31 +3032,31 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>40 TDI 2.0d AMT (190 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>40 TDI S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4630700</v>
+        <v>4317000</v>
       </c>
       <c r="G69" t="n">
-        <v>4597000</v>
+        <v>4317000</v>
       </c>
       <c r="H69" t="n">
-        <v>33700</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>audi_centr_lahta_sankt_peterburg</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -3076,19 +3076,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>55 TFSI 3.0 AMT (340 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>55 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8359900</v>
+        <v>6453500</v>
       </c>
       <c r="G70" t="n">
-        <v>8359900</v>
+        <v>6453500</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3110,31 +3110,31 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q3 Sportback</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sport 40 TFSI quattro S tronic</t>
+          <t>35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4214074</v>
+        <v>2650000</v>
       </c>
       <c r="G71" t="n">
-        <v>3690000</v>
+        <v>2650000</v>
       </c>
       <c r="H71" t="n">
-        <v>524074</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -3159,21 +3159,21 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Design 45 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5309677</v>
+        <v>4317000</v>
       </c>
       <c r="G72" t="n">
-        <v>4690000</v>
+        <v>4317000</v>
       </c>
       <c r="H72" t="n">
-        <v>619677</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -3188,24 +3188,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Design 40 TFSI quattro S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3768500</v>
+        <v>4317000</v>
       </c>
       <c r="G73" t="n">
-        <v>3768500</v>
+        <v>4317000</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3227,31 +3227,31 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>RS 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+          <t>4.0 AT (600 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sport 40 TFSI quattro S tronic</t>
+          <t>TFSI quattro</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3936000</v>
+        <v>14000000</v>
       </c>
       <c r="G74" t="n">
-        <v>3936000</v>
+        <v>11226300</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2773700</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3266,31 +3266,31 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q3 Sportback</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sport 40 TFSI quattro S tronic</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4223700</v>
+        <v>8550000</v>
       </c>
       <c r="G75" t="n">
-        <v>3690000</v>
+        <v>8550000</v>
       </c>
       <c r="H75" t="n">
-        <v>533700</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -3305,24 +3305,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>35 TFSI tiptronic</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2706000</v>
+        <v>8200000</v>
       </c>
       <c r="G76" t="n">
-        <v>2706000</v>
+        <v>8200000</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3344,24 +3344,24 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sport 35 TFSI tiptronic</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2816000</v>
+        <v>8200000</v>
       </c>
       <c r="G77" t="n">
-        <v>2816000</v>
+        <v>8200000</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3383,31 +3383,31 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Design 35 TFSI tiptronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2767000</v>
+        <v>7500000</v>
       </c>
       <c r="G78" t="n">
-        <v>2767000</v>
+        <v>7077000</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>423000</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>audi_centr_lahta_sankt_peterburg</t>
         </is>
       </c>
     </row>
@@ -3422,31 +3422,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>35 TFSI 2.0 AMT (150 л.с.)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Design 35 TFSI tiptronic</t>
+          <t>Sport 35 TFSI S tronic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2698000</v>
+        <v>3621758</v>
       </c>
       <c r="G79" t="n">
-        <v>2698000</v>
+        <v>3393000</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>228758</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3461,31 +3461,31 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>35 TFSI 1.4 AT (150 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sport 35 TFSI tiptronic</t>
+          <t>Design 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2816000</v>
+        <v>5400000</v>
       </c>
       <c r="G80" t="n">
-        <v>2816000</v>
+        <v>4690000</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>710000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3500,24 +3500,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>35 TFSI 2.0 AMT (150 л.с.)</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>35 TFSI S tronic</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2990000</v>
+        <v>4800000</v>
       </c>
       <c r="G81" t="n">
-        <v>2990000</v>
+        <v>4800000</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3539,12 +3539,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>6587000</v>
+        <v>4800000</v>
       </c>
       <c r="G82" t="n">
-        <v>6587000</v>
+        <v>4800000</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3588,21 +3588,21 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>Sport 45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4899040</v>
+        <v>6119955</v>
       </c>
       <c r="G83" t="n">
-        <v>4899040</v>
+        <v>5167600</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>952355</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4899040</v>
+        <v>4800000</v>
       </c>
       <c r="G84" t="n">
-        <v>4899040</v>
+        <v>4800000</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,24 +3656,24 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4899040</v>
+        <v>2950000</v>
       </c>
       <c r="G85" t="n">
-        <v>4899040</v>
+        <v>2950000</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3695,24 +3695,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6303500</v>
+        <v>2650000</v>
       </c>
       <c r="G86" t="n">
-        <v>6303500</v>
+        <v>2650000</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3744,21 +3744,21 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>35 TFSI tiptronic</t>
+          <t>Design 35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2650000</v>
+        <v>3004900</v>
       </c>
       <c r="G87" t="n">
-        <v>2650000</v>
+        <v>2777900</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>227000</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3773,24 +3773,24 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>35 TFSI 1.4 AT (150 л.с.)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>35 TFSI tiptronic</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4899040</v>
+        <v>2950000</v>
       </c>
       <c r="G88" t="n">
-        <v>4899040</v>
+        <v>2950000</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3812,31 +3812,31 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>RS 6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>4.0 AT (600 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>TFSI quattro</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4899040</v>
+        <v>16366300</v>
       </c>
       <c r="G89" t="n">
-        <v>4899040</v>
+        <v>11226300</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>5140000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3851,31 +3851,31 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>RS 6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>4.0 AT (600 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>TFSI quattro</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4899040</v>
+        <v>16150000</v>
       </c>
       <c r="G90" t="n">
-        <v>4899040</v>
+        <v>11226300</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>4923700</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ауди Центр Витебский</t>
+          <t>Ауди Центр Выборгский</t>
         </is>
       </c>
     </row>
@@ -3890,24 +3890,24 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4899040</v>
+        <v>8200000</v>
       </c>
       <c r="G91" t="n">
-        <v>4899040</v>
+        <v>8200000</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3929,24 +3929,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Q7</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>45 TFSI quattro S tronic</t>
+          <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4899040</v>
+        <v>7113000</v>
       </c>
       <c r="G92" t="n">
-        <v>4899040</v>
+        <v>7113000</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3968,31 +3968,31 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>RS 6</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4.0 AT (600 л.с.) 4WD</t>
+          <t>45 TFSI 2.0 AMT (245 л.с.) 4WD</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TFSI quattro</t>
+          <t>45 TFSI quattro S tronic</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>15000000</v>
+        <v>6516200</v>
       </c>
       <c r="G93" t="n">
-        <v>11226300</v>
+        <v>6516200</v>
       </c>
       <c r="H93" t="n">
-        <v>3773700</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Ауди Центр Выборгский</t>
+          <t>Ауди Центр Витебский</t>
         </is>
       </c>
     </row>
@@ -4007,29 +4007,536 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Design 40 TFSI quattro S tronic</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>4120900</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4093000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>27900</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>audi_centr_lahta_sankt_peterburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>40 TFSI 2.0 AMT (180 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>40 TFSI quattro S tronic</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3787000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>763000</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>audi_centr_lahta_sankt_peterburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>35 TFSI 2.0 AMT (150 л.с.)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sport 35 TFSI S tronic</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>3525700</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3393000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>132700</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Ауди Центр Выборгский</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>40 TFSI 2.0 AMT (190 л.с.)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sport 40 TFSI S tronic</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>3870400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3547000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>323400</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Ауди Центр Выборгский</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q5 Sportback</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>45 TFSI 2.0 AMT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Sport 45 TFSI quattro</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5955400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5806000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>149400</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>audi_centr_lahta_sankt_peterburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RS 6</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.0 AT (600 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>TFSI quattro</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>15500000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>11226300</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4273700</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Ауди Центр Выборгский</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Q7</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>45 TDI quattro tiptronic</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>9850000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>7919583</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1930417</v>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="F100" t="n">
+        <v>7725453</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7725453</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sport 45 TDI quattro tiptronic</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>10118000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>9673100</v>
+      </c>
+      <c r="H101" t="n">
+        <v>444900</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Ауди Центр Выборгский</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>45 TDI</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>45 TDI quattro tiptronic</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>8514000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8514000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>45 TDI quattro tiptronic</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>45 TDI quattro tiptronic</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>45 TDI quattro tiptronic</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>8188000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>8188000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Ауди Центр Витебский</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>45 TDI 3.0d AT (249 л.с.) 4WD</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>45 TDI</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>10125100</v>
+      </c>
+      <c r="G107" t="n">
+        <v>10026700</v>
+      </c>
+      <c r="H107" t="n">
+        <v>98400</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>Ауди Центр Выборгский</t>
         </is>
